--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd36</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H2">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I2">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J2">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>479.764676027396</v>
+        <v>503.7454223333334</v>
       </c>
       <c r="N2">
-        <v>479.764676027396</v>
+        <v>1511.236267</v>
       </c>
       <c r="O2">
-        <v>0.6480510150279009</v>
+        <v>0.6437328705599147</v>
       </c>
       <c r="P2">
-        <v>0.6480510150279009</v>
+        <v>0.6724324423344896</v>
       </c>
       <c r="Q2">
-        <v>3304.380463596484</v>
+        <v>7740.217840528711</v>
       </c>
       <c r="R2">
-        <v>3304.380463596484</v>
+        <v>69661.96056475841</v>
       </c>
       <c r="S2">
-        <v>0.00187651589598104</v>
+        <v>0.003802472965160555</v>
       </c>
       <c r="T2">
-        <v>0.00187651589598104</v>
+        <v>0.00400528532797428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H3">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I3">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J3">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.545508239487031</v>
+        <v>0.6891913333333334</v>
       </c>
       <c r="N3">
-        <v>0.545508239487031</v>
+        <v>2.067574</v>
       </c>
       <c r="O3">
-        <v>0.0007368553500705558</v>
+        <v>0.0008807129468624942</v>
       </c>
       <c r="P3">
-        <v>0.0007368553500705558</v>
+        <v>0.0009199778121307421</v>
       </c>
       <c r="Q3">
-        <v>3.757189429237857</v>
+        <v>10.58965663468511</v>
       </c>
       <c r="R3">
-        <v>3.757189429237857</v>
+        <v>95.306909712166</v>
       </c>
       <c r="S3">
-        <v>2.133660383799478E-06</v>
+        <v>5.202293254962541E-06</v>
       </c>
       <c r="T3">
-        <v>2.133660383799478E-06</v>
+        <v>5.479767781870665E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H4">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I4">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J4">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>98.7753852438893</v>
+        <v>113.3692653333333</v>
       </c>
       <c r="N4">
-        <v>98.7753852438893</v>
+        <v>340.107796</v>
       </c>
       <c r="O4">
-        <v>0.1334226796293339</v>
+        <v>0.1448738179460895</v>
       </c>
       <c r="P4">
-        <v>0.1334226796293339</v>
+        <v>0.1513327339445595</v>
       </c>
       <c r="Q4">
-        <v>680.3157247564561</v>
+        <v>1741.956891709574</v>
       </c>
       <c r="R4">
-        <v>680.3157247564561</v>
+        <v>15677.61202538616</v>
       </c>
       <c r="S4">
-        <v>0.0003863427005018292</v>
+        <v>0.0008557567918202569</v>
       </c>
       <c r="T4">
-        <v>0.0003863427005018292</v>
+        <v>0.0009014002608292813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H5">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I5">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J5">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.2844787345371</v>
+        <v>64.53739933333333</v>
       </c>
       <c r="N5">
-        <v>63.2844787345371</v>
+        <v>193.612198</v>
       </c>
       <c r="O5">
-        <v>0.08548268084056795</v>
+        <v>0.08247190642226332</v>
       </c>
       <c r="P5">
-        <v>0.08548268084056795</v>
+        <v>0.08614875516806848</v>
       </c>
       <c r="Q5">
-        <v>435.8720131520279</v>
+        <v>991.638846835309</v>
       </c>
       <c r="R5">
-        <v>435.8720131520279</v>
+        <v>8924.749621517782</v>
       </c>
       <c r="S5">
-        <v>0.0002475262065926916</v>
+        <v>0.0004871542357051655</v>
       </c>
       <c r="T5">
-        <v>0.0002475262065926916</v>
+        <v>0.0005131375635298005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H6">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I6">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J6">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>97.9492551767221</v>
+        <v>100.196705</v>
       </c>
       <c r="N6">
-        <v>97.9492551767221</v>
+        <v>200.39341</v>
       </c>
       <c r="O6">
-        <v>0.1323067691521269</v>
+        <v>0.12804069212487</v>
       </c>
       <c r="P6">
-        <v>0.1323067691521269</v>
+        <v>0.08916609074075162</v>
       </c>
       <c r="Q6">
-        <v>674.6257517535645</v>
+        <v>1539.556071816782</v>
       </c>
       <c r="R6">
-        <v>674.6257517535645</v>
+        <v>9237.336430900692</v>
       </c>
       <c r="S6">
-        <v>0.0003831114367580628</v>
+        <v>0.0007563250107483042</v>
       </c>
       <c r="T6">
-        <v>0.0003831114367580628</v>
+        <v>0.0005311100603012026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H7">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J7">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>479.764676027396</v>
+        <v>503.7454223333334</v>
       </c>
       <c r="N7">
-        <v>479.764676027396</v>
+        <v>1511.236267</v>
       </c>
       <c r="O7">
-        <v>0.6480510150279009</v>
+        <v>0.6437328705599147</v>
       </c>
       <c r="P7">
-        <v>0.6480510150279009</v>
+        <v>0.6724324423344896</v>
       </c>
       <c r="Q7">
-        <v>1108352.145269148</v>
+        <v>1268459.546883179</v>
       </c>
       <c r="R7">
-        <v>1108352.145269148</v>
+        <v>11416135.92194861</v>
       </c>
       <c r="S7">
-        <v>0.6294191730811007</v>
+        <v>0.623145657369978</v>
       </c>
       <c r="T7">
-        <v>0.6294191730811007</v>
+        <v>0.6563823547262156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H8">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J8">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545508239487031</v>
+        <v>0.6891913333333334</v>
       </c>
       <c r="N8">
-        <v>0.545508239487031</v>
+        <v>2.067574</v>
       </c>
       <c r="O8">
-        <v>0.0007368553500705558</v>
+        <v>0.0008807129468624942</v>
       </c>
       <c r="P8">
-        <v>0.0007368553500705558</v>
+        <v>0.0009199778121307421</v>
       </c>
       <c r="Q8">
-        <v>1260.232896894063</v>
+        <v>1735.422869644143</v>
       </c>
       <c r="R8">
-        <v>1260.232896894063</v>
+        <v>15618.80582679728</v>
       </c>
       <c r="S8">
-        <v>0.0007156703320676481</v>
+        <v>0.0008525468767029496</v>
       </c>
       <c r="T8">
-        <v>0.0007156703320676481</v>
+        <v>0.0008980191385856282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H9">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J9">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>98.7753852438893</v>
+        <v>113.3692653333333</v>
       </c>
       <c r="N9">
-        <v>98.7753852438893</v>
+        <v>340.107796</v>
       </c>
       <c r="O9">
-        <v>0.1334226796293339</v>
+        <v>0.1448738179460895</v>
       </c>
       <c r="P9">
-        <v>0.1334226796293339</v>
+        <v>0.1513327339445595</v>
       </c>
       <c r="Q9">
-        <v>228190.8519013179</v>
+        <v>285470.2406408016</v>
       </c>
       <c r="R9">
-        <v>228190.8519013179</v>
+        <v>2569232.165767214</v>
       </c>
       <c r="S9">
-        <v>0.1295867003293627</v>
+        <v>0.1402406101170376</v>
       </c>
       <c r="T9">
-        <v>0.1295867003293627</v>
+        <v>0.1477206184592071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H10">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J10">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.2844787345371</v>
+        <v>64.53739933333333</v>
       </c>
       <c r="N10">
-        <v>63.2844787345371</v>
+        <v>193.612198</v>
       </c>
       <c r="O10">
-        <v>0.08548268084056795</v>
+        <v>0.08247190642226332</v>
       </c>
       <c r="P10">
-        <v>0.08548268084056795</v>
+        <v>0.08614875516806848</v>
       </c>
       <c r="Q10">
-        <v>146199.7751657287</v>
+        <v>162508.8322116983</v>
       </c>
       <c r="R10">
-        <v>146199.7751657287</v>
+        <v>1462579.489905285</v>
       </c>
       <c r="S10">
-        <v>0.08302500426622966</v>
+        <v>0.07983437337502455</v>
       </c>
       <c r="T10">
-        <v>0.08302500426622966</v>
+        <v>0.08409249645605434</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H11">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J11">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>97.9492551767221</v>
+        <v>100.196705</v>
       </c>
       <c r="N11">
-        <v>97.9492551767221</v>
+        <v>200.39341</v>
       </c>
       <c r="O11">
-        <v>0.1323067691521269</v>
+        <v>0.12804069212487</v>
       </c>
       <c r="P11">
-        <v>0.1323067691521269</v>
+        <v>0.08916609074075162</v>
       </c>
       <c r="Q11">
-        <v>226282.3265805336</v>
+        <v>252300.986547501</v>
       </c>
       <c r="R11">
-        <v>226282.3265805336</v>
+        <v>1513805.919285006</v>
       </c>
       <c r="S11">
-        <v>0.128502872924562</v>
+        <v>0.1239458242902215</v>
       </c>
       <c r="T11">
-        <v>0.128502872924562</v>
+        <v>0.08703781215397206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H12">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I12">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J12">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>479.764676027396</v>
+        <v>503.7454223333334</v>
       </c>
       <c r="N12">
-        <v>479.764676027396</v>
+        <v>1511.236267</v>
       </c>
       <c r="O12">
-        <v>0.6480510150279009</v>
+        <v>0.6437328705599147</v>
       </c>
       <c r="P12">
-        <v>0.6480510150279009</v>
+        <v>0.6724324423344896</v>
       </c>
       <c r="Q12">
-        <v>29504.66456590847</v>
+        <v>766.2574047348209</v>
       </c>
       <c r="R12">
-        <v>29504.66456590847</v>
+        <v>6896.316642613388</v>
       </c>
       <c r="S12">
-        <v>0.01675532605081907</v>
+        <v>0.0003764329539411544</v>
       </c>
       <c r="T12">
-        <v>0.01675532605081907</v>
+        <v>0.0003965107447707683</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H13">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I13">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J13">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.545508239487031</v>
+        <v>0.6891913333333334</v>
       </c>
       <c r="N13">
-        <v>0.545508239487031</v>
+        <v>2.067574</v>
       </c>
       <c r="O13">
-        <v>0.0007368553500705558</v>
+        <v>0.0008807129468624942</v>
       </c>
       <c r="P13">
-        <v>0.0007368553500705558</v>
+        <v>0.0009199778121307421</v>
       </c>
       <c r="Q13">
-        <v>33.5477754579102</v>
+        <v>1.048342950690444</v>
       </c>
       <c r="R13">
-        <v>33.5477754579102</v>
+        <v>9.435086556214001</v>
       </c>
       <c r="S13">
-        <v>1.905135761910818E-05</v>
+        <v>5.15010793022431E-07</v>
       </c>
       <c r="T13">
-        <v>1.905135761910818E-05</v>
+        <v>5.42479905035707E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H14">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I14">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J14">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.7753852438893</v>
+        <v>113.3692653333333</v>
       </c>
       <c r="N14">
-        <v>98.7753852438893</v>
+        <v>340.107796</v>
       </c>
       <c r="O14">
-        <v>0.1334226796293339</v>
+        <v>0.1448738179460895</v>
       </c>
       <c r="P14">
-        <v>0.1334226796293339</v>
+        <v>0.1513327339445595</v>
       </c>
       <c r="Q14">
-        <v>6074.508513467385</v>
+        <v>172.4482946735951</v>
       </c>
       <c r="R14">
-        <v>6074.508513467385</v>
+        <v>1552.034652062356</v>
       </c>
       <c r="S14">
-        <v>0.003449636599469282</v>
+        <v>8.471725110253427E-05</v>
       </c>
       <c r="T14">
-        <v>0.003449636599469282</v>
+        <v>8.923581205605392E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H15">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I15">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J15">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>63.2844787345371</v>
+        <v>64.53739933333333</v>
       </c>
       <c r="N15">
-        <v>63.2844787345371</v>
+        <v>193.612198</v>
       </c>
       <c r="O15">
-        <v>0.08548268084056795</v>
+        <v>0.08247190642226332</v>
       </c>
       <c r="P15">
-        <v>0.08548268084056795</v>
+        <v>0.08614875516806848</v>
       </c>
       <c r="Q15">
-        <v>3891.881604856342</v>
+        <v>98.16915038638643</v>
       </c>
       <c r="R15">
-        <v>3891.881604856342</v>
+        <v>883.522353477478</v>
       </c>
       <c r="S15">
-        <v>0.002210150367745594</v>
+        <v>4.822674865847409E-05</v>
       </c>
       <c r="T15">
-        <v>0.002210150367745594</v>
+        <v>5.079901700485424E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.563361</v>
+      </c>
+      <c r="I16">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J16">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>100.196705</v>
+      </c>
+      <c r="N16">
+        <v>200.39341</v>
+      </c>
+      <c r="O16">
+        <v>0.12804069212487</v>
+      </c>
+      <c r="P16">
+        <v>0.08916609074075162</v>
+      </c>
+      <c r="Q16">
+        <v>152.4112453085017</v>
+      </c>
+      <c r="R16">
+        <v>914.4674718510101</v>
+      </c>
+      <c r="S16">
+        <v>7.487381515769387E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.257823808317454E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.449807</v>
+      </c>
+      <c r="H17">
+        <v>4.349421</v>
+      </c>
+      <c r="I17">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J17">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>503.7454223333334</v>
+      </c>
+      <c r="N17">
+        <v>1511.236267</v>
+      </c>
+      <c r="O17">
+        <v>0.6437328705599147</v>
+      </c>
+      <c r="P17">
+        <v>0.6724324423344896</v>
+      </c>
+      <c r="Q17">
+        <v>730.333639516823</v>
+      </c>
+      <c r="R17">
+        <v>6573.002755651408</v>
+      </c>
+      <c r="S17">
+        <v>0.0003587849821576004</v>
+      </c>
+      <c r="T17">
+        <v>0.0003779214837554206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.449807</v>
+      </c>
+      <c r="H18">
+        <v>4.349421</v>
+      </c>
+      <c r="I18">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J18">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6891913333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.067574</v>
+      </c>
+      <c r="O18">
+        <v>0.0008807129468624942</v>
+      </c>
+      <c r="P18">
+        <v>0.0009199778121307421</v>
+      </c>
+      <c r="Q18">
+        <v>0.9991944194060001</v>
+      </c>
+      <c r="R18">
+        <v>8.992749774654001</v>
+      </c>
+      <c r="S18">
+        <v>4.908659995118543E-07</v>
+      </c>
+      <c r="T18">
+        <v>5.170473015482032E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.449807</v>
+      </c>
+      <c r="H19">
+        <v>4.349421</v>
+      </c>
+      <c r="I19">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J19">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>113.3692653333333</v>
+      </c>
+      <c r="N19">
+        <v>340.107796</v>
+      </c>
+      <c r="O19">
+        <v>0.1448738179460895</v>
+      </c>
+      <c r="P19">
+        <v>0.1513327339445595</v>
+      </c>
+      <c r="Q19">
+        <v>164.363554465124</v>
+      </c>
+      <c r="R19">
+        <v>1479.271990186116</v>
+      </c>
+      <c r="S19">
+        <v>8.074552747583101E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.505224875013266E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.449807</v>
+      </c>
+      <c r="H20">
+        <v>4.349421</v>
+      </c>
+      <c r="I20">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J20">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>64.53739933333333</v>
+      </c>
+      <c r="N20">
+        <v>193.612198</v>
+      </c>
+      <c r="O20">
+        <v>0.08247190642226332</v>
+      </c>
+      <c r="P20">
+        <v>0.08614875516806848</v>
+      </c>
+      <c r="Q20">
+        <v>93.566773315262</v>
+      </c>
+      <c r="R20">
+        <v>842.100959837358</v>
+      </c>
+      <c r="S20">
+        <v>4.596577684230747E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.84174518168232E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.449807</v>
+      </c>
+      <c r="H21">
+        <v>4.349421</v>
+      </c>
+      <c r="I21">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J21">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>100.196705</v>
+      </c>
+      <c r="N21">
+        <v>200.39341</v>
+      </c>
+      <c r="O21">
+        <v>0.12804069212487</v>
+      </c>
+      <c r="P21">
+        <v>0.08916609074075162</v>
+      </c>
+      <c r="Q21">
+        <v>145.265884285935</v>
+      </c>
+      <c r="R21">
+        <v>871.5953057156102</v>
+      </c>
+      <c r="S21">
+        <v>7.136357259418924E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.011325925386116E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.854191</v>
+      </c>
+      <c r="H22">
+        <v>129.708382</v>
+      </c>
+      <c r="I22">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J22">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>503.7454223333334</v>
+      </c>
+      <c r="N22">
+        <v>1511.236267</v>
+      </c>
+      <c r="O22">
+        <v>0.6437328705599147</v>
+      </c>
+      <c r="P22">
+        <v>0.6724324423344896</v>
+      </c>
+      <c r="Q22">
+        <v>32670.00183538167</v>
+      </c>
+      <c r="R22">
+        <v>196020.01101229</v>
+      </c>
+      <c r="S22">
+        <v>0.01604952228867746</v>
+      </c>
+      <c r="T22">
+        <v>0.01127037005177353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.854191</v>
+      </c>
+      <c r="H23">
+        <v>129.708382</v>
+      </c>
+      <c r="I23">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J23">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6891913333333334</v>
+      </c>
+      <c r="N23">
+        <v>2.067574</v>
+      </c>
+      <c r="O23">
+        <v>0.0008807129468624942</v>
+      </c>
+      <c r="P23">
+        <v>0.0009199778121307421</v>
+      </c>
+      <c r="Q23">
+        <v>44.69694636754467</v>
+      </c>
+      <c r="R23">
+        <v>268.181678205268</v>
+      </c>
+      <c r="S23">
+        <v>2.195790011204781E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.541937855665927E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>61.49820118108</v>
-      </c>
-      <c r="H16">
-        <v>61.49820118108</v>
-      </c>
-      <c r="I16">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="J16">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>97.9492551767221</v>
-      </c>
-      <c r="N16">
-        <v>97.9492551767221</v>
-      </c>
-      <c r="O16">
-        <v>0.1323067691521269</v>
-      </c>
-      <c r="P16">
-        <v>0.1323067691521269</v>
-      </c>
-      <c r="Q16">
-        <v>6023.703000394998</v>
-      </c>
-      <c r="R16">
-        <v>6023.703000394998</v>
-      </c>
-      <c r="S16">
-        <v>0.003420784790806776</v>
-      </c>
-      <c r="T16">
-        <v>0.003420784790806776</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.854191</v>
+      </c>
+      <c r="H24">
+        <v>129.708382</v>
+      </c>
+      <c r="I24">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J24">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>113.3692653333333</v>
+      </c>
+      <c r="N24">
+        <v>340.107796</v>
+      </c>
+      <c r="O24">
+        <v>0.1448738179460895</v>
+      </c>
+      <c r="P24">
+        <v>0.1513327339445595</v>
+      </c>
+      <c r="Q24">
+        <v>7352.471987457679</v>
+      </c>
+      <c r="R24">
+        <v>44114.83192474607</v>
+      </c>
+      <c r="S24">
+        <v>0.003611988258653249</v>
+      </c>
+      <c r="T24">
+        <v>0.002536427163717016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.854191</v>
+      </c>
+      <c r="H25">
+        <v>129.708382</v>
+      </c>
+      <c r="I25">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J25">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>64.53739933333333</v>
+      </c>
+      <c r="N25">
+        <v>193.612198</v>
+      </c>
+      <c r="O25">
+        <v>0.08247190642226332</v>
+      </c>
+      <c r="P25">
+        <v>0.08614875516806848</v>
+      </c>
+      <c r="Q25">
+        <v>4185.520823007272</v>
+      </c>
+      <c r="R25">
+        <v>25113.12493804363</v>
+      </c>
+      <c r="S25">
+        <v>0.00205618628603282</v>
+      </c>
+      <c r="T25">
+        <v>0.001443904679662672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.854191</v>
+      </c>
+      <c r="H26">
+        <v>129.708382</v>
+      </c>
+      <c r="I26">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J26">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>100.196705</v>
+      </c>
+      <c r="N26">
+        <v>200.39341</v>
+      </c>
+      <c r="O26">
+        <v>0.12804069212487</v>
+      </c>
+      <c r="P26">
+        <v>0.08916609074075162</v>
+      </c>
+      <c r="Q26">
+        <v>6498.176243640655</v>
+      </c>
+      <c r="R26">
+        <v>25992.70497456262</v>
+      </c>
+      <c r="S26">
+        <v>0.003192305436148338</v>
+      </c>
+      <c r="T26">
+        <v>0.001494477029141317</v>
       </c>
     </row>
   </sheetData>
